--- a/機械設計/_BOM/RL001.xlsx
+++ b/機械設計/_BOM/RL001.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59331EC5-B3EF-4FE0-B344-D8C6270AA916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D7F5EA-6EDC-4621-BB87-E89EE2C7D5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{B3196EBC-CB99-489D-865C-6FCC97B98583}"/>
+    <workbookView xWindow="42120" yWindow="6870" windowWidth="14400" windowHeight="10845" xr2:uid="{D7085BDE-5D1F-486D-8B0C-D7D48F4B2D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{B5E4DA01-4171-462A-8124-71176AF9B57C}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{7838D902-12CC-4CAD-8C2C-90C594DB64F3}" mergeInterval="0" personalView="1" xWindow="2808" yWindow="458" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="88">
   <si>
     <t>種類</t>
   </si>
@@ -155,6 +155,12 @@
     <t>足機構主柱</t>
   </si>
   <si>
+    <t>R-P005</t>
+  </si>
+  <si>
+    <t>カウンターアームロック</t>
+  </si>
+  <si>
     <t>RL</t>
   </si>
   <si>
@@ -194,19 +200,58 @@
     <t>ﾆﾄﾘﾙｺﾞﾑ(NBR)</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>タイミングベルト</t>
   </si>
   <si>
+    <t>CBSTBR3-6</t>
+  </si>
+  <si>
+    <t>SCM435</t>
+  </si>
+  <si>
+    <t>超極低頭ﾎﾞﾙﾄ</t>
+  </si>
+  <si>
+    <t>1日目</t>
+  </si>
+  <si>
+    <t>CBSTBR3-10</t>
+  </si>
+  <si>
+    <t>MPFZ10-8</t>
+  </si>
+  <si>
+    <t>黄銅</t>
+  </si>
+  <si>
+    <t>無給油ﾌﾞｯｼｭ</t>
+  </si>
+  <si>
     <t>CB2.6-5</t>
   </si>
   <si>
-    <t>SCM435</t>
-  </si>
-  <si>
     <t>六角穴付ﾎﾞﾙﾄ</t>
   </si>
   <si>
-    <t>1日目</t>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>マブチ</t>
+  </si>
+  <si>
+    <t>RS380-PH</t>
+  </si>
+  <si>
+    <t>材料 &lt;指定なし&gt;</t>
+  </si>
+  <si>
+    <t>馬渕モータ RS380PH</t>
+  </si>
+  <si>
+    <t>電動機</t>
   </si>
   <si>
     <t>KHK</t>
@@ -234,39 +279,6 @@
   </si>
   <si>
     <t>CLJW6-8-38.0</t>
-  </si>
-  <si>
-    <t>CBSTBR3-6</t>
-  </si>
-  <si>
-    <t>超極低頭ﾎﾞﾙﾄ</t>
-  </si>
-  <si>
-    <t>MPFZ10-8</t>
-  </si>
-  <si>
-    <t>黄銅</t>
-  </si>
-  <si>
-    <t>無給油ﾌﾞｯｼｭ</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>マブチ</t>
-  </si>
-  <si>
-    <t>RS380-PH</t>
-  </si>
-  <si>
-    <t>材料 &lt;指定なし&gt;</t>
-  </si>
-  <si>
-    <t>馬渕モータ RS380PH</t>
-  </si>
-  <si>
-    <t>電動機</t>
   </si>
   <si>
     <t>組立品</t>
@@ -374,8 +386,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D5198AE5-0C07-469D-9596-462CC57BA8AE}">
-  <header guid="{D5198AE5-0C07-469D-9596-462CC57BA8AE}" dateTime="2023-07-13T14:21:46" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FE8AAF41-F2A8-40F4-B130-F13797E8094E}">
+  <header guid="{FE8AAF41-F2A8-40F4-B130-F13797E8094E}" dateTime="2023-07-16T17:01:35" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -687,8 +699,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6B261E-4E42-44A1-990B-D62158CF8954}">
-  <dimension ref="A1:S20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8180BE13-97D7-4287-AB37-00AB397FAA51}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,7 +894,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1012,18 +1024,18 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -1059,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -1070,7 +1082,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1103,40 +1115,40 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>23</v>
@@ -1150,42 +1162,40 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
       <c r="N10" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>23</v>
@@ -1199,123 +1209,123 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="1">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="3">
-        <v>642</v>
-      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="M12" s="3">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M13" s="3">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>23</v>
@@ -1330,22 +1340,22 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1353,10 +1363,10 @@
         <v>62</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M14" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>23</v>
@@ -1371,33 +1381,33 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H15" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M15" s="3">
-        <v>280</v>
+        <v>642</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>23</v>
@@ -1412,13 +1422,15 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>67</v>
@@ -1430,16 +1442,14 @@
         <v>2</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="3">
-        <v>500</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,12 +1463,12 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>71</v>
@@ -1473,55 +1483,63 @@
         <v>2</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>150</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="Q17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>300</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1535,32 +1553,34 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3"/>
+      <c r="K19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="3">
+        <v>300</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,29 +1594,31 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
@@ -1611,9 +1633,87 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B5E4DA01-4171-462A-8124-71176AF9B57C}">
+    <customSheetView guid="{7838D902-12CC-4CAD-8C2C-90C594DB64F3}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
